--- a/wcsm9automationproject1/src/main/resources/TestData.xlsx
+++ b/wcsm9automationproject1/src/main/resources/TestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="IPL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Team</t>
   </si>
@@ -85,9 +86,6 @@
   </si>
   <si>
     <t>PUNE</t>
-  </si>
-  <si>
-    <t>LOC</t>
   </si>
   <si>
     <t>LOCATION</t>
@@ -97,7 +95,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,10 +474,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -488,7 +485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -512,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -520,7 +517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -528,7 +525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -536,7 +533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -544,7 +541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -552,7 +549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -560,7 +557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
